--- a/Titus/Gurobi code/Final/Input/K-Donderdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Donderdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD0E725-3206-49A3-9712-7218DD04AB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6FFBEF-74C0-4B37-A20A-4ABFDE750E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{36110EDF-C48B-49B7-BEED-A0885A4EB9B1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D7506193-563A-4434-BD1C-827B0BED7BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Thursday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09C21B4-6FD5-401A-80BC-D6ED30B14797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4BF776-3AAB-4551-BA75-B4B527D9119D}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>5546.9280700370691</v>
+        <v>5545</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>4650.4548465967346</v>
+        <v>4650</v>
       </c>
       <c r="C2">
-        <v>2969.5675526461082</v>
+        <v>2970</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5098.6914583169018</v>
+        <v>5098</v>
       </c>
       <c r="C3">
-        <v>3697.95204669138</v>
+        <v>3698</v>
       </c>
       <c r="D3">
-        <v>3529.8633172963168</v>
+        <v>3530</v>
       </c>
       <c r="E3">
-        <v>3137.65628204117</v>
+        <v>3138</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>3361.7745879012541</v>
+        <v>3362</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3753.9816231564</v>
+        <v>3754</v>
       </c>
       <c r="C7">
-        <v>3641.9224702263591</v>
+        <v>3642</v>
       </c>
       <c r="D7">
-        <v>3585.8928937613382</v>
+        <v>3586</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>4090.1590819465259</v>
+        <v>4090</v>
       </c>
       <c r="C8">
-        <v>3922.0703525514632</v>
+        <v>3922</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>4034.129505481505</v>
+        <v>4034</v>
       </c>
       <c r="C10">
-        <v>2857.5083997160659</v>
+        <v>2858</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3641.9224702263591</v>
+        <v>3642</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3585.8928937613382</v>
+        <v>3586</v>
       </c>
       <c r="C13">
-        <v>2969.5675526461082</v>
+        <v>2970</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4594.4252701317137</v>
+        <v>4594</v>
       </c>
       <c r="C14">
-        <v>3529.8633172963168</v>
+        <v>3530</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3417.804164366275</v>
+        <v>3418</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3137.65628204117</v>
+        <v>3138</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>3137.65628204117</v>
+        <v>3138</v>
       </c>
       <c r="C17">
-        <v>2857.5083997160659</v>
+        <v>2858</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3810.0111996214209</v>
+        <v>3810</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>4818.5435759917973</v>
+        <v>4818</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>4314.2773878066091</v>
+        <v>4314</v>
       </c>
       <c r="C22">
-        <v>3585.8928937613382</v>
+        <v>3586</v>
       </c>
       <c r="D22">
-        <v>3249.7154349712118</v>
+        <v>3250</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3753.9816231564</v>
+        <v>3754</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>3922.0703525514632</v>
+        <v>3922</v>
       </c>
       <c r="C25">
-        <v>3305.7450114362332</v>
+        <v>3306</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>3922.0703525514632</v>
+        <v>3922</v>
       </c>
       <c r="C27">
-        <v>3697.95204669138</v>
+        <v>3698</v>
       </c>
       <c r="D27">
-        <v>3810.0111996214209</v>
+        <v>3810</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>3866.0407760864418</v>
+        <v>3866</v>
       </c>
       <c r="C28">
-        <v>3193.6858585061909</v>
+        <v>3194</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>4090.1590819465259</v>
+        <v>4090</v>
       </c>
       <c r="C29">
         <v>0</v>
